--- a/document/기능명세서.xlsx
+++ b/document/기능명세서.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinyoung\Documents\GitHub\jorupplease\document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,14 +266,77 @@
   <si>
     <t>각 분류별 차트를 한눈에 파악 가능하도록
 화면에 배치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음과 같은 정보를 테이블화 하여 표시한다.
+Date, Time, SrcIP, DestIP, DestURL, SrcPort, Dest Port, Layer 4 Protocol, Country, Packet 크기 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Output Traffic을 도표로 보여준다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신에 사용된 프로토콜의 빈도수를 측정해 
+상위 5개의 프로토콜을 도표로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 분류별 도표를 한눈에 파악 가능하도록
+화면에 배치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 IP가 가장 많은 트래픽을 발생 시키는지,
+가장 많이 사용되는 Dest IP 등을 그래프로 나타낸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 프로토콜의 송수신 빈도 수를 도표로 시각화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 원하는 조건으로 필터 기능을 수행한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +359,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,12 +405,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +417,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,291 +696,291 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="47.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="33">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="33">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:4" ht="33">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:4" ht="49.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:4" ht="33">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:4" ht="33">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:4" ht="33">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:4" ht="33">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:4" ht="49.5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -928,4 +997,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="33">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="33">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="33">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="49.5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="33">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="33">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="33">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="33">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4"/>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="49.5">
+      <c r="B24" s="4"/>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D14:D26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>